--- a/Adoption-Preparation/Kanban-Workflows/Community/2.0/en/Kanban-Example-2.xlsx
+++ b/Adoption-Preparation/Kanban-Workflows/Community/2.0/en/Kanban-Example-2.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shane/Documents/OpenChain GitHub/Reference-Material/Adoption-Preparation/Kanban-Workflows/Community/2.0/en/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67075C62-4EAC-B149-8DFD-4D4A5CEB3469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="0" windowWidth="26680" windowHeight="16140"/>
+    <workbookView xWindow="2160" yWindow="880" windowWidth="26680" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OpenChain Kanban Templ" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -197,9 +203,6 @@
     <t>Deliver FOSS Content Documentation and Artifacts</t>
   </si>
   <si>
-    <t>Does the FOSS program ensure that the Supplied Software is accompanied by the required artefacts that might include the following information, if required by the license</t>
-  </si>
-  <si>
     <t>copyright notices,
 copies of Identified Licenses,
 modification notifications,
@@ -275,11 +278,14 @@
   <si>
     <t>In Progress</t>
   </si>
+  <si>
+    <t>Does the FOSS program ensure that the Supplied Software is accompanied by the required artifacts that might include the following information, if required by the license</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -309,8 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -327,6 +332,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -618,14 +626,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="47.5" customWidth="1"/>
     <col min="2" max="2" width="34.5" customWidth="1"/>
@@ -634,809 +642,809 @@
     <col min="7" max="7" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="42">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="2">
         <v>43195.541666666664</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="2">
         <v>43193.541666666664</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="2">
         <v>43174.541666666664</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="42">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="2">
         <v>43174.541666666664</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="70">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="2">
         <v>43187.541666666664</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="42">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="3">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="2">
         <v>43465.541666666664</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="42">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="42">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="168">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:7" ht="192" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2" t="s">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="70">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2" t="s">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="28">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2" t="s">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="42">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="3">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="2">
         <v>43190.541666666664</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2" t="s">
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="42">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="3">
+      <c r="D14" s="1"/>
+      <c r="E14" s="2">
         <v>43195.541666666664</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2" t="s">
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="42">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="3">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="2">
         <v>43202.541666666664</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2" t="s">
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="56">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="3">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="2">
         <v>43208.541666666664</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2" t="s">
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="42">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="3">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="2">
         <v>43188.541666666664</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2" t="s">
+      <c r="F17" s="1"/>
+      <c r="G17" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="70">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="3">
+      <c r="D18" s="1"/>
+      <c r="E18" s="2">
         <v>43209.541666666664</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2" t="s">
+      <c r="F18" s="1"/>
+      <c r="G18" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="28">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="3">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="2">
         <v>43209.541666666664</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2" t="s">
+      <c r="F19" s="1"/>
+      <c r="G19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="28">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="3">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="2">
         <v>43200.541666666664</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2" t="s">
+      <c r="F20" s="1"/>
+      <c r="G20" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="42">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="3">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="2">
         <v>43202.541666666664</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" ht="42">
-      <c r="A22" s="1" t="s">
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="3">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="2">
         <v>43049.541666666664</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2" t="s">
+      <c r="F22" s="1"/>
+      <c r="G22" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="42">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="3">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="2">
         <v>43067.541666666664</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2" t="s">
+      <c r="F23" s="1"/>
+      <c r="G23" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="56">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="3">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="2">
         <v>43146.541666666664</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2" t="s">
+      <c r="F24" s="1"/>
+      <c r="G24" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="3">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="2">
         <v>43230.541666666664</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2" t="s">
+      <c r="F25" s="1"/>
+      <c r="G25" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="42">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="3">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="2">
         <v>43188.541666666664</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2" t="s">
+      <c r="F26" s="1"/>
+      <c r="G26" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="56">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="3">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="2">
         <v>43217.541666666664</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2" t="s">
+      <c r="F27" s="1"/>
+      <c r="G27" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="3">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="2">
         <v>43216.541666666664</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2" t="s">
+      <c r="F28" s="1"/>
+      <c r="G28" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="3">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="2">
         <v>43209.541666666664</v>
       </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2" t="s">
+      <c r="F29" s="1"/>
+      <c r="G29" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="196">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:7" ht="224" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="3">
+      <c r="D30" s="1"/>
+      <c r="E30" s="2">
         <v>43216.541666666664</v>
       </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2" t="s">
+      <c r="F30" s="1"/>
+      <c r="G30" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="42">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="3">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="2">
         <v>43216.541666666664</v>
       </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2" t="s">
+      <c r="F31" s="1"/>
+      <c r="G31" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="28">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="3">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="2">
         <v>43188.541666666664</v>
       </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2" t="s">
+      <c r="F32" s="1"/>
+      <c r="G32" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="182">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:7" ht="208" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="1"/>
+      <c r="E33" s="2">
+        <v>43187.541666666664</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="3">
-        <v>43187.541666666664</v>
-      </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2" t="s">
+    </row>
+    <row r="34" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="42">
-      <c r="A34" s="1" t="s">
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="2">
+        <v>43209.541666666664</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="3">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="2">
         <v>43209.541666666664</v>
       </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2" t="s">
+      <c r="F35" s="1"/>
+      <c r="G35" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="42">
-      <c r="A35" s="1" t="s">
+    <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="3">
-        <v>43209.541666666664</v>
-      </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="1" t="s">
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="2">
+        <v>43210.541666666664</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="3">
-        <v>43210.541666666664</v>
-      </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2" t="s">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="2">
+        <v>43203.541666666664</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="2">
+        <v>43208.541666666664</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="28">
-      <c r="A37" s="1" t="s">
+    <row r="39" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="3">
-        <v>43203.541666666664</v>
-      </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="1:7" ht="56">
-      <c r="A38" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="3">
-        <v>43208.541666666664</v>
-      </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2" t="s">
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="2">
+        <v>43202.541666666664</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="56">
-      <c r="A39" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B39" s="2" t="s">
+    <row r="40" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>62</v>
       </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="3">
-        <v>43202.541666666664</v>
-      </c>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="42">
-      <c r="A40" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="2">
+        <v>43463.541666666664</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="3">
+    </row>
+    <row r="41" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="2">
         <v>43463.541666666664</v>
       </c>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="42">
-      <c r="A41" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B41" s="2" t="s">
+      <c r="F41" s="1"/>
+      <c r="G41" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="3">
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="2">
         <v>43463.541666666664</v>
       </c>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="28">
-      <c r="A42" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B42" s="2" t="s">
+      <c r="F42" s="1"/>
+      <c r="G42" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="3">
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="2">
         <v>43463.541666666664</v>
       </c>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="28">
-      <c r="A43" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B43" s="2" t="s">
+      <c r="F43" s="1"/>
+      <c r="G43" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="3">
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="2">
         <v>43463.541666666664</v>
       </c>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="42">
-      <c r="A44" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B44" s="2" t="s">
+      <c r="F44" s="1"/>
+      <c r="G44" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="3">
+      <c r="C45" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="2">
         <v>43463.541666666664</v>
       </c>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="42">
-      <c r="A45" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C45" s="2" t="s">
+      <c r="F45" s="1"/>
+      <c r="G45" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="112" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D45" s="2"/>
-      <c r="E45" s="3">
-        <v>43463.541666666664</v>
-      </c>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="98">
-      <c r="A46" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B46" s="2" t="s">
+      <c r="C46" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="D46" s="1"/>
+      <c r="E46" s="2">
+        <v>43465.541666666664</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>73</v>
       </c>
-      <c r="D46" s="2"/>
-      <c r="E46" s="3">
-        <v>43465.541666666664</v>
-      </c>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
